--- a/play/docs/ham_pool_summ.xlsx
+++ b/play/docs/ham_pool_summ.xlsx
@@ -731,7 +731,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
